--- a/tests/xl/simple.xlsx
+++ b/tests/xl/simple.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-09-30 08:42:21.904246 - SchemaUrl=None</t>
+    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.263245 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="J5" s="5">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
       <c r="K5" s="6">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -789,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="J6" s="5">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
       <c r="K6" s="6">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="J7" s="5">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
       <c r="K7" s="6">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
@@ -847,16 +847,16 @@
   </sheetData>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/tests/xl/simple.xlsx
+++ b/tests/xl/simple.xlsx
@@ -124,7 +124,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2024-10-04 13:00:12.263245 - SchemaUrl=None</t>
+    <t>#Title=TestArray - HeaderDepth=3 - IsTransposed=False - DateTime=2025-09-18 09:28:30.350659 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>45569</v>
+        <v>45918</v>
       </c>
       <c r="J5" s="5">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
       <c r="K5" s="6">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
       <c r="L5" s="7">
         <v>0.1062847222222222</v>
@@ -789,13 +789,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>45569</v>
+        <v>45918</v>
       </c>
       <c r="J6" s="5">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
       <c r="K6" s="6">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
       <c r="L6" s="7">
         <v>0.1062847222222222</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>45569</v>
+        <v>45918</v>
       </c>
       <c r="J7" s="5">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
       <c r="K7" s="6">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
       <c r="L7" s="7">
         <v>0.1062847222222222</v>
